--- a/To_Do/to_do.xlsx
+++ b/To_Do/to_do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI\Basic\python exercises\To_Do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919B5EE7-7F89-4CA1-99F4-4135DB2B33DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73B0952-849F-48B7-8381-FE034C18B5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1040,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1176,7 +1176,7 @@
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="28.5">
       <c r="A14" s="2">

--- a/To_Do/to_do.xlsx
+++ b/To_Do/to_do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI\Basic\python exercises\To_Do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73B0952-849F-48B7-8381-FE034C18B5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B68ED68-117A-43F7-93CD-2345D38AC8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>#</t>
   </si>
@@ -693,6 +694,18 @@
   </si>
   <si>
     <t xml:space="preserve">done in previous training </t>
+  </si>
+  <si>
+    <t>use: len()</t>
+  </si>
+  <si>
+    <t>note: floor division</t>
+  </si>
+  <si>
+    <t>member operater used: in</t>
+  </si>
+  <si>
+    <t>used: round()</t>
   </si>
 </sst>
 </file>
@@ -1040,14 +1053,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="137" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
@@ -1177,6 +1190,9 @@
         <v>14</v>
       </c>
       <c r="C13" s="3"/>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="28.5">
       <c r="A14" s="2">
@@ -1185,7 +1201,10 @@
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="28.5">
       <c r="A15" s="2">
@@ -1194,7 +1213,10 @@
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="28.5">
       <c r="A16" s="2">
@@ -1203,7 +1225,10 @@
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="28.5">
       <c r="A17" s="2">
@@ -1212,7 +1237,7 @@
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" ht="28.5">
       <c r="A18" s="2">
@@ -1221,7 +1246,7 @@
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" ht="28.5">
       <c r="A19" s="2">

--- a/To_Do/to_do.xlsx
+++ b/To_Do/to_do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI\Basic\python exercises\To_Do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B68ED68-117A-43F7-93CD-2345D38AC8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED22922C-AE01-43FD-B185-8FD7E33975CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1053,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="137" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="137" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1255,7 +1254,7 @@
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="28.5">
       <c r="A20" s="2">
@@ -1264,7 +1263,7 @@
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" ht="28.5">
       <c r="A21" s="2">
@@ -1273,7 +1272,7 @@
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" ht="28.5">
       <c r="A22" s="2">
@@ -1282,7 +1281,7 @@
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" ht="28.5">
       <c r="A23" s="2">
@@ -1291,7 +1290,7 @@
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="28.5">
       <c r="A24" s="2">
@@ -1300,7 +1299,7 @@
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
@@ -1309,7 +1308,7 @@
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" ht="28.5">
       <c r="A26" s="2">
@@ -1318,7 +1317,7 @@
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" ht="28.5">
       <c r="A27" s="2">

--- a/To_Do/to_do.xlsx
+++ b/To_Do/to_do.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI\Basic\python exercises\To_Do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED22922C-AE01-43FD-B185-8FD7E33975CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623B4369-36D7-476F-808A-70B8BBE024A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>#</t>
   </si>
@@ -705,6 +705,11 @@
   </si>
   <si>
     <t>used: round()</t>
+  </si>
+  <si>
+    <t>result=""
+in  the loop:
+result=i+result</t>
   </si>
 </sst>
 </file>
@@ -759,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -769,6 +774,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="137" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="137" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1326,7 +1334,7 @@
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" ht="28.5">
       <c r="A28" s="2">
@@ -1335,7 +1343,7 @@
       <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" ht="28.5">
       <c r="A29" s="2">
@@ -1344,7 +1352,7 @@
       <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
@@ -1353,7 +1361,7 @@
       <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" ht="28.5">
       <c r="A31" s="2">
@@ -1362,7 +1370,7 @@
       <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" ht="28.5">
       <c r="A32" s="2">
@@ -1371,90 +1379,93 @@
       <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" ht="28.5">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="28.5">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" ht="28.5">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="28.5">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" ht="28.5">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="28.5">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="42.75">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" ht="28.5">
+      <c r="C36" s="3"/>
+      <c r="D36" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28.5">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" ht="28.5">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="28.5">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" ht="28.5">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" ht="28.5">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" ht="28.5">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" ht="28.5">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" ht="28.5">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" ht="28.5">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" ht="28.5">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" ht="28.5">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1463,7 +1474,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" ht="28.5">
+    <row r="43" spans="1:4" ht="28.5">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1472,7 +1483,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" ht="28.5">
+    <row r="44" spans="1:4" ht="28.5">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1481,7 +1492,7 @@
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" ht="28.5">
+    <row r="45" spans="1:4" ht="28.5">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1490,7 +1501,7 @@
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" ht="28.5">
+    <row r="46" spans="1:4" ht="28.5">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1499,7 +1510,7 @@
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" ht="28.5">
+    <row r="47" spans="1:4" ht="28.5">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1508,7 +1519,7 @@
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" ht="28.5">
+    <row r="48" spans="1:4" ht="28.5">
       <c r="A48" s="2">
         <v>47</v>
       </c>

--- a/To_Do/to_do.xlsx
+++ b/To_Do/to_do.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI\Basic\python exercises\To_Do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623B4369-36D7-476F-808A-70B8BBE024A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614BE75F-D8E5-4E04-8454-213ACE06E63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="9210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>#</t>
   </si>
@@ -710,6 +710,12 @@
     <t>result=""
 in  the loop:
 result=i+result</t>
+  </si>
+  <si>
+    <t>needs practice more</t>
+  </si>
+  <si>
+    <t>I get helped by .35.</t>
   </si>
 </sst>
 </file>
@@ -738,7 +744,7 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,6 +754,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -778,6 +790,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1060,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="137" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="137" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1472,7 +1485,7 @@
       <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:4" ht="28.5">
       <c r="A43" s="2">
@@ -1481,7 +1494,7 @@
       <c r="B43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:4" ht="28.5">
       <c r="A44" s="2">
@@ -1490,7 +1503,7 @@
       <c r="B44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:4" ht="28.5">
       <c r="A45" s="2">
@@ -1499,7 +1512,10 @@
       <c r="B45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="28.5">
       <c r="A46" s="2">
@@ -1508,7 +1524,7 @@
       <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:4" ht="28.5">
       <c r="A47" s="2">
@@ -1517,7 +1533,7 @@
       <c r="B47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="28.5">
       <c r="A48" s="2">
@@ -1526,36 +1542,39 @@
       <c r="B48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" ht="28.5">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" ht="28.5">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3" ht="28.5">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" ht="28.5">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" ht="28.5">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" ht="28.5">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3" ht="28.5">
+      <c r="C51" s="3"/>
+      <c r="D51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="28.5">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1564,7 +1583,7 @@
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" ht="28.5">
+    <row r="53" spans="1:4" ht="28.5">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1573,7 +1592,7 @@
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1582,7 +1601,7 @@
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1591,7 +1610,7 @@
       </c>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1600,7 +1619,7 @@
       </c>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1609,7 +1628,7 @@
       </c>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:3" ht="28.5">
+    <row r="58" spans="1:4" ht="28.5">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1618,7 +1637,7 @@
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" ht="28.5">
+    <row r="59" spans="1:4" ht="28.5">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1627,7 +1646,7 @@
       </c>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1636,7 +1655,7 @@
       </c>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:3" ht="28.5">
+    <row r="61" spans="1:4" ht="28.5">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1645,7 +1664,7 @@
       </c>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:3" ht="28.5">
+    <row r="62" spans="1:4" ht="28.5">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -1654,7 +1673,7 @@
       </c>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:3" ht="28.5">
+    <row r="63" spans="1:4" ht="28.5">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -1663,7 +1682,7 @@
       </c>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" s="2">
         <v>63</v>
       </c>

--- a/To_Do/to_do.xlsx
+++ b/To_Do/to_do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI\Basic\python exercises\To_Do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614BE75F-D8E5-4E04-8454-213ACE06E63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACF3D6D-8B0C-4937-86B0-2E74E1F6D065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="9210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>#</t>
   </si>
@@ -716,6 +716,28 @@
   </si>
   <si>
     <t>I get helped by .35.</t>
+  </si>
+  <si>
+    <t>del () :builtin funciton</t>
+  </si>
+  <si>
+    <t>append() method of list</t>
+  </si>
+  <si>
+    <t>sorted() : builtin function</t>
+  </si>
+  <si>
+    <t>reversed(): builtin and return
+an iterator</t>
+  </si>
+  <si>
+    <t>sum()</t>
+  </si>
+  <si>
+    <t>from collections import Counter</t>
+  </si>
+  <si>
+    <t>list1 + list2</t>
   </si>
 </sst>
 </file>
@@ -1073,14 +1095,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="137" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="137" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
@@ -1581,7 +1603,7 @@
       <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:4" ht="28.5">
       <c r="A53" s="2">
@@ -1590,7 +1612,7 @@
       <c r="B53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
@@ -1599,7 +1621,10 @@
       <c r="B54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="3"/>
+      <c r="D54" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
@@ -1608,7 +1633,10 @@
       <c r="B55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="D55" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
@@ -1617,16 +1645,22 @@
       <c r="B56" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="C56" s="3"/>
+      <c r="D56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="42.75">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="28.5">
       <c r="A58" s="2">
@@ -1635,7 +1669,10 @@
       <c r="B58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="3"/>
+      <c r="D58" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="28.5">
       <c r="A59" s="2">
@@ -1644,7 +1681,10 @@
       <c r="B59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="3"/>
+      <c r="D59" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
@@ -1653,7 +1693,10 @@
       <c r="B60" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="28.5">
       <c r="A61" s="2">
@@ -1662,7 +1705,7 @@
       <c r="B61" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:4" ht="28.5">
       <c r="A62" s="2">

--- a/To_Do/to_do.xlsx
+++ b/To_Do/to_do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI\Basic\python exercises\To_Do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACF3D6D-8B0C-4937-86B0-2E74E1F6D065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F6661C-D962-4334-AEA8-CDFFCA4CD19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="9210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>#</t>
   </si>
@@ -738,13 +738,145 @@
   </si>
   <si>
     <t>list1 + list2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">expresion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> item </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sequence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unordered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unchangeable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Once a set is created, 
+you cannot change its items,
+ but you can remove items 
+and add new items.)
+, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>do not allow duplicate values.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+I used add() method</t>
+    </r>
+  </si>
+  <si>
+    <t>remove(arg)
+discard(arg)
+pop()</t>
+  </si>
+  <si>
+    <t>union() method</t>
+  </si>
+  <si>
+    <t>intersection()</t>
+  </si>
+  <si>
+    <t>names.difference(colors)
+يعني يلي موجودين ب names
+وغير موجودين ب colors</t>
+  </si>
+  <si>
+    <t>list(set(theRequiredList))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,6 +896,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1095,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="137" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="137" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1650,7 +1789,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="42.75">
+    <row r="57" spans="1:4" ht="28.5">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1706,6 +1845,9 @@
         <v>62</v>
       </c>
       <c r="C61" s="3"/>
+      <c r="D61" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="28.5">
       <c r="A62" s="2">
@@ -1714,7 +1856,7 @@
       <c r="B62" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:4" ht="28.5">
       <c r="A63" s="2">
@@ -1723,7 +1865,7 @@
       <c r="B63" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
@@ -1732,72 +1874,90 @@
       <c r="B64" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="1:3" ht="28.5">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" ht="128.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="C65" s="3"/>
+      <c r="D65" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="42.75">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="C66" s="3"/>
+      <c r="D66" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="C67" s="3"/>
+      <c r="D67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="1:3" ht="28.5">
+      <c r="C68" s="3"/>
+      <c r="D68" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="42.75">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:3" ht="28.5">
+      <c r="C69" s="3"/>
+      <c r="D69" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="28.5">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="1:3" ht="28.5">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" ht="28.5">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="1:3" ht="28.5">
+      <c r="C71" s="3"/>
+      <c r="D71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="28.5">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -1806,7 +1966,7 @@
       </c>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -1815,7 +1975,7 @@
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:3" ht="28.5">
+    <row r="74" spans="1:4" ht="28.5">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -1824,7 +1984,7 @@
       </c>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -1833,7 +1993,7 @@
       </c>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:3" ht="28.5">
+    <row r="76" spans="1:4" ht="28.5">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -1842,7 +2002,7 @@
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:3" ht="28.5">
+    <row r="77" spans="1:4" ht="28.5">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -1851,7 +2011,7 @@
       </c>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:3" ht="28.5">
+    <row r="78" spans="1:4" ht="28.5">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -1860,7 +2020,7 @@
       </c>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -1869,7 +2029,7 @@
       </c>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="1:3" ht="28.5">
+    <row r="80" spans="1:4" ht="28.5">
       <c r="A80" s="2">
         <v>79</v>
       </c>

--- a/To_Do/to_do.xlsx
+++ b/To_Do/to_do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI\Basic\python exercises\To_Do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F6661C-D962-4334-AEA8-CDFFCA4CD19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C20B49B-16CE-41DC-AED5-5E6FB81EED40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="9210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>#</t>
   </si>
@@ -870,6 +870,15 @@
   </si>
   <si>
     <t>list(set(theRequiredList))</t>
+  </si>
+  <si>
+    <t>del dictName[key]</t>
+  </si>
+  <si>
+    <t>get(arg) method</t>
+  </si>
+  <si>
+    <t>update(arg) method</t>
   </si>
 </sst>
 </file>
@@ -1234,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="137" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="137" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1964,7 +1973,7 @@
       <c r="B72" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="2"/>
+      <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
@@ -1973,7 +1982,7 @@
       <c r="B73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:4" ht="28.5">
       <c r="A74" s="2">
@@ -1982,7 +1991,7 @@
       <c r="B74" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="2"/>
+      <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
@@ -1991,7 +2000,7 @@
       <c r="B75" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="2"/>
+      <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:4" ht="28.5">
       <c r="A76" s="2">
@@ -2000,7 +2009,10 @@
       <c r="B76" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="2"/>
+      <c r="C76" s="3"/>
+      <c r="D76" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="77" spans="1:4" ht="28.5">
       <c r="A77" s="2">
@@ -2009,7 +2021,7 @@
       <c r="B77" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="2"/>
+      <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:4" ht="28.5">
       <c r="A78" s="2">
@@ -2018,7 +2030,10 @@
       <c r="B78" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="2"/>
+      <c r="C78" s="3"/>
+      <c r="D78" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
@@ -2027,7 +2042,10 @@
       <c r="B79" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="2"/>
+      <c r="C79" s="3"/>
+      <c r="D79" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="28.5">
       <c r="A80" s="2">
@@ -2036,7 +2054,7 @@
       <c r="B80" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="2"/>
+      <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
@@ -2045,7 +2063,7 @@
       <c r="B81" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C81" s="2"/>
+      <c r="C81" s="3"/>
     </row>
     <row r="82" spans="1:3" ht="28.5">
       <c r="A82" s="2">

--- a/To_Do/to_do.xlsx
+++ b/To_Do/to_do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI\Basic\python exercises\To_Do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C20B49B-16CE-41DC-AED5-5E6FB81EED40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E459ED-AA52-4082-8BA9-6CBEAB92AA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="9210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>#</t>
   </si>
@@ -879,6 +879,272 @@
   </si>
   <si>
     <t>update(arg) method</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('addres','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>') as file:
+file.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('addres','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>') as file:
+file.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>write</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('addres','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>') as file:
+line_count=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for line in file)</t>
+    </r>
+  </si>
+  <si>
+    <t>steps:
+1- read the contents
+2-split it to list
+3-take the len() of the list</t>
+  </si>
+  <si>
+    <t>steps:
+1:read the contents
+2:use replace() method
+3:write the new contents</t>
+  </si>
+  <si>
+    <t>use: file.readlines()
+then iterate over the lines</t>
+  </si>
+  <si>
+    <t>use:writelines()</t>
+  </si>
+  <si>
+    <t>steps:
+open r , open w:
+for each line in src
+write it to destenation</t>
+  </si>
+  <si>
+    <t>use remove()</t>
   </si>
 </sst>
 </file>
@@ -1243,14 +1509,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="137" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="168" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
@@ -2056,7 +2322,7 @@
       </c>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -2065,97 +2331,124 @@
       </c>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="1:3" ht="28.5">
+    <row r="82" spans="1:4" ht="28.5">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:4" ht="28.5">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="2"/>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="C83" s="3"/>
+      <c r="D83" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="28.5">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="2"/>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="C84" s="3"/>
+      <c r="D84" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="42.75">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="1:3" ht="28.5">
+      <c r="C85" s="3"/>
+      <c r="D85" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="57">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C86" s="2"/>
-    </row>
-    <row r="87" spans="1:3" ht="28.5">
+      <c r="C86" s="3"/>
+      <c r="D86" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="57">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="2"/>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="C87" s="3"/>
+      <c r="D87" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="28.5">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="2"/>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="C88" s="3"/>
+      <c r="D88" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="2"/>
-    </row>
-    <row r="90" spans="1:3" ht="28.5">
+      <c r="C89" s="3"/>
+      <c r="D89" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="57">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="2"/>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="C90" s="3"/>
+      <c r="D90" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="2"/>
-    </row>
-    <row r="92" spans="1:3" ht="27">
+      <c r="C91" s="3"/>
+      <c r="D91" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="27">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -2164,7 +2457,7 @@
       </c>
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -2173,7 +2466,7 @@
       </c>
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:4">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -2182,7 +2475,7 @@
       </c>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:3" ht="27">
+    <row r="95" spans="1:4" ht="27">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -2191,7 +2484,7 @@
       </c>
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="1:3" ht="28.5">
+    <row r="96" spans="1:4" ht="28.5">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -2246,5 +2539,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/To_Do/to_do.xlsx
+++ b/To_Do/to_do.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI\Basic\python exercises\To_Do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E459ED-AA52-4082-8BA9-6CBEAB92AA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A779E1-07C1-4FC3-8A40-89A1DAA2E59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="9210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>#</t>
   </si>
@@ -1145,6 +1145,81 @@
   </si>
   <si>
     <t>use remove()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">try:
+except </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ValueError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>needs practice</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>os</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+os.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>listdir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(directoryPath)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1212,7 +1287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1227,6 +1302,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1509,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="168" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="168" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2455,16 +2531,19 @@
       <c r="B92" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="2"/>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:4" ht="28.5">
       <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C93" s="2"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
@@ -2473,7 +2552,10 @@
       <c r="B94" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="2"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="27">
       <c r="A95" s="2">
@@ -2482,7 +2564,7 @@
       <c r="B95" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C95" s="2"/>
+      <c r="C95" s="3"/>
     </row>
     <row r="96" spans="1:4" ht="28.5">
       <c r="A96" s="2">
@@ -2491,51 +2573,55 @@
       <c r="B96" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="2"/>
-    </row>
-    <row r="97" spans="1:3" ht="28.5">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:4" ht="28.5">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C97" s="2"/>
-    </row>
-    <row r="98" spans="1:3" ht="28.5">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="1:4" ht="28.5">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C98" s="2"/>
-    </row>
-    <row r="99" spans="1:3" ht="28.5">
+      <c r="C98" s="3"/>
+      <c r="D98" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="28.5">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C99" s="2"/>
-    </row>
-    <row r="100" spans="1:3" ht="28.5">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="1:4" ht="28.5">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="2"/>
-    </row>
-    <row r="101" spans="1:3" ht="28.5">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="1:4" ht="28.5">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="C101" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
